--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="549">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,1180 +44,1180 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダークマター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オーク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest,wooden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森から生まれし,木の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉄塊と呼ばれる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">granite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">グラナイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rigid,stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">岩をも砕く,石の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">練習用の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森の草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深い草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">子供のおもちゃの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゼリー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trembling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プルプルする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raw food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生もの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">食用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acacia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アカシア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄金に輝く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dreadbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇を砕く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雷を帯し</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青銅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">気高き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミカ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ephemeral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">儚き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chromite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クロム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真実を暴く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダイヤ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever lasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うつろいなき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rubynus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ルビナス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crimson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤く染まった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鋼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">由緒ある</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珊瑚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海からもたらされし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quartz sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珪砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glittering,glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">さざめく,ガラスの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crystal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水晶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luminescent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">異光を放つ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">革</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysterious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全てを包む</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragon scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragonbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜を統べし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pearl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真珠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇を照らす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emerald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エメラルド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奇跡を呼ぶ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cobalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コバルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adamantite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アダマンタイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earthshaking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大地を揺るがす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sapphire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サファイア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">topaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">トパーズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aquamarine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アクアマリン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オパール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翡翠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onyx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オニキス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lapis lazuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ラピス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turquoise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ターコイズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meteorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メテオライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brilliant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光をまといし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">骨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">immortal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不死なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">樺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふざけた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エーテル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eternal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永遠なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パイン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森の土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limestone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ライムストーン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大理石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バサルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スレート</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダイオライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obsidian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黒曜石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">godbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神殺しの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phyllite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フィライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hot spring water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">温泉水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄い色の土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mahogany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マホガニー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rosewood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローズウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">氷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">straw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">藁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farmwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">農作業用の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cedar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mystic soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神秘的な土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mystic grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神秘的な草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresh water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">淡水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mithril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミスリル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titanium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タイタニアム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unfading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">色褪せぬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">綿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightweight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シルク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beautiful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美しき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逆鱗に触れし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cashmere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カシミア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暖かなる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zylon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ザイロン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">異国からもたらされし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spirit cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">霊布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otherworldly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">この世ならざる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dawn cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵晒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵闇をまといし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">griffon scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼鳥鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fallen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼を折られし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plastic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プラスチック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transparent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">透き通った</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青い土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柔らかい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spider silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蜘蛛糸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entangled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">絡みつく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">灰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">モミ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パルル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">明るい土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄色い土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tropical water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南の島の水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">麻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">強靭なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">willow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cherryblossom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">桜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">processed food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加工物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poplar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ポプラ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bamboo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amethyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アメジスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bewitching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妖艶なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dark matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダークマター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest,wooden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森から生まれし,木の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉄塊と呼ばれる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">granite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">グラナイト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rigid,stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">岩をも砕く,石の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">泥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">practice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">練習用の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森の草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深い草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">子供のおもちゃの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゼリー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trembling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プルプルする</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raw food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生もの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">食用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acacia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカシア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄金に輝く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dreadbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闇を砕く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">copper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雷を帯し</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青銅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">気高き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミカ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ephemeral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">儚き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クロム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真実を暴く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diamond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダイヤ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever lasting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うつろいなき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rubynus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ルビナス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crimson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤く染まった</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鋼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">historic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">由緒ある</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">珊瑚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ocean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海からもたらされし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quartz sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">珪砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glittering,glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">さざめく,ガラスの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crystal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水晶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luminescent </t>
-  </si>
-  <si>
-    <t xml:space="preserve">異光を放つ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">革</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysterious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全てを包む</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragon scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragonbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜を統べし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pearl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真珠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shining</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闇を照らす</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emerald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エメラルド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">奇跡を呼ぶ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cobalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コバルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adamantite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アダマンタイト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">earthshaking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大地を揺るがす</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sapphire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サファイア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">topaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">トパーズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aquamarine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アクアマリン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オパール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翡翠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onyx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オニキス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lapis lazuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ラピス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turquoise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ターコイズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meteorite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メテオライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platinum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brilliant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">光をまといし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">immortal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不死なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">樺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">紙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ふざけた</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エーテル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eternal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">永遠なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パイン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森の土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">limestone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ライムストーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大理石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バサルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スレート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diorite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダイオライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obsidian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黒曜石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">godbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神殺しの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phyllite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フィライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hot spring water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">温泉水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">light soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薄い色の土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mahogany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">マホガニー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rosewood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローズウッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">氷</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">straw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">藁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farmwork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">農作業用の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cedar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mystic soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神秘的な土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mystic grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神秘的な草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fresh water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">淡水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mithril</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミスリル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">古なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titanium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイタニアム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unfading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">色褪せぬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cotton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">綿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightweight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薄い</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シルク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beautiful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美しき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逆鱗に触れし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cashmere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カシミア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">warm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">暖かなる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zylon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ザイロン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exotic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">異国からもたらされし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spirit cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">霊布</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otherworldly </t>
-  </si>
-  <si>
-    <t xml:space="preserve">この世ならざる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dawn cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵晒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dusk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵闇をまといし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">griffon scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼鳥鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fallen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼を折られし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plastic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プラスチック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transparent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">透き通った</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青い土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ウール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柔らかい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spider silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蜘蛛糸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entangled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">絡みつく</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">灰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モミ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パルル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">明るい土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yellow soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄色い土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tropical water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">南の島の水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">麻</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">強靭なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">willow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherryblossom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">桜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">processed food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">加工物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carbon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">炭</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poplar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ポプラ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bamboo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amethyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アメジスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bewitching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">妖艶なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.42</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 15.1</t>
@@ -1870,7 +1870,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C7" t="s">
         <v>407</v>
@@ -1918,7 +1918,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C9" t="s">
         <v>409</v>
@@ -1940,7 +1940,7 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C10" t="s">
         <v>410</v>
@@ -2040,7 +2040,7 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C14" t="s">
         <v>414</v>
@@ -2478,7 +2478,7 @@
         <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C31" t="s">
         <v>431</v>
@@ -2526,7 +2526,7 @@
         <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C33" t="s">
         <v>433</v>
@@ -2548,7 +2548,7 @@
         <v>150</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C34" t="s">
         <v>434</v>
@@ -2570,7 +2570,7 @@
         <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C35" t="s">
         <v>435</v>
@@ -2592,7 +2592,7 @@
         <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C36" t="s">
         <v>436</v>
@@ -2614,7 +2614,7 @@
         <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C37" t="s">
         <v>437</v>
@@ -2636,7 +2636,7 @@
         <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C38" t="s">
         <v>438</v>
@@ -2658,7 +2658,7 @@
         <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C39" t="s">
         <v>439</v>
@@ -2680,7 +2680,7 @@
         <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C40" t="s">
         <v>440</v>
@@ -2702,7 +2702,7 @@
         <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C41" t="s">
         <v>441</v>
@@ -2776,7 +2776,7 @@
         <v>184</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C44" t="s">
         <v>444</v>
@@ -2850,7 +2850,7 @@
         <v>197</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C47" t="s">
         <v>447</v>
@@ -2872,7 +2872,7 @@
         <v>200</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C48" t="s">
         <v>448</v>
@@ -2894,7 +2894,7 @@
         <v>203</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C49" t="s">
         <v>449</v>
@@ -2916,7 +2916,7 @@
         <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C50" t="s">
         <v>450</v>
@@ -2938,7 +2938,7 @@
         <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C51" t="s">
         <v>451</v>
@@ -2960,7 +2960,7 @@
         <v>212</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C52" t="s">
         <v>452</v>
@@ -2982,7 +2982,7 @@
         <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C53" t="s">
         <v>453</v>
@@ -3004,7 +3004,7 @@
         <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C54" t="s">
         <v>454</v>
@@ -3026,7 +3026,7 @@
         <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C55" t="s">
         <v>455</v>
@@ -3048,7 +3048,7 @@
         <v>224</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C56" t="s">
         <v>456</v>
@@ -3070,7 +3070,7 @@
         <v>227</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C57" t="s">
         <v>457</v>
@@ -3118,7 +3118,7 @@
         <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C59" t="s">
         <v>459</v>
@@ -3140,7 +3140,7 @@
         <v>238</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C60" t="s">
         <v>460</v>
@@ -3162,7 +3162,7 @@
         <v>241</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C61" t="s">
         <v>461</v>
@@ -3184,7 +3184,7 @@
         <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C62" t="s">
         <v>462</v>
@@ -3206,7 +3206,7 @@
         <v>247</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C63" t="s">
         <v>463</v>
@@ -3228,7 +3228,7 @@
         <v>250</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C64" t="s">
         <v>464</v>
@@ -3276,7 +3276,7 @@
         <v>258</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C66" t="s">
         <v>466</v>
@@ -3298,7 +3298,7 @@
         <v>261</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C67" t="s">
         <v>467</v>
@@ -3320,7 +3320,7 @@
         <v>264</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C68" t="s">
         <v>468</v>
@@ -3342,7 +3342,7 @@
         <v>267</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C69" t="s">
         <v>469</v>
@@ -3364,7 +3364,7 @@
         <v>270</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C70" t="s">
         <v>470</v>
@@ -3672,7 +3672,7 @@
         <v>328</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C82" t="s">
         <v>482</v>
@@ -3746,7 +3746,7 @@
         <v>341</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C85" t="s">
         <v>485</v>
@@ -3768,7 +3768,7 @@
         <v>344</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C86" t="s">
         <v>486</v>
@@ -3790,7 +3790,7 @@
         <v>347</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C87" t="s">
         <v>487</v>
@@ -3812,7 +3812,7 @@
         <v>350</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C88" t="s">
         <v>488</v>
@@ -3834,7 +3834,7 @@
         <v>353</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C89" t="s">
         <v>489</v>
@@ -3856,7 +3856,7 @@
         <v>355</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C90" t="s">
         <v>490</v>
@@ -3878,7 +3878,7 @@
         <v>358</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C91" t="s">
         <v>491</v>
@@ -3900,7 +3900,7 @@
         <v>361</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C92" t="s">
         <v>492</v>
@@ -3922,7 +3922,7 @@
         <v>364</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C93" t="s">
         <v>493</v>
@@ -3970,7 +3970,7 @@
         <v>372</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C95" t="s">
         <v>495</v>
@@ -3992,7 +3992,7 @@
         <v>375</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C96" t="s">
         <v>496</v>
@@ -4014,7 +4014,7 @@
         <v>378</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C97" t="s">
         <v>497</v>
@@ -4036,7 +4036,7 @@
         <v>381</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C98" t="s">
         <v>498</v>
@@ -4058,7 +4058,7 @@
         <v>384</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C99" t="s">
         <v>499</v>
@@ -4080,7 +4080,7 @@
         <v>387</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C100" t="s">
         <v>500</v>
@@ -4102,7 +4102,7 @@
         <v>390</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C101" t="s">
         <v>501</v>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="549">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,1180 +44,1180 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダークマター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オーク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest,wooden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森から生まれし,木の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉄塊と呼ばれる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">granite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">グラナイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rigid,stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">岩をも砕く,石の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">練習用の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森の草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深い草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">子供のおもちゃの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゼリー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trembling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プルプルする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raw food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生もの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">食用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acacia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アカシア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄金に輝く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dreadbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇を砕く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雷を帯し</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青銅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">気高き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミカ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ephemeral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">儚き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chromite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クロム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真実を暴く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダイヤ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever lasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うつろいなき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rubynus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ルビナス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crimson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤く染まった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鋼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">由緒ある</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珊瑚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海からもたらされし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quartz sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珪砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glittering,glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">さざめく,ガラスの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crystal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水晶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luminescent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">異光を放つ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">革</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysterious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全てを包む</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragon scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragonbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜を統べし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pearl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真珠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇を照らす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emerald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エメラルド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奇跡を呼ぶ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cobalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コバルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adamantite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アダマンタイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earthshaking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大地を揺るがす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sapphire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サファイア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">topaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">トパーズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aquamarine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アクアマリン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オパール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翡翠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onyx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オニキス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lapis lazuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ラピス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turquoise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ターコイズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meteorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メテオライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brilliant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光をまといし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">骨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">immortal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不死なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">樺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふざけた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エーテル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eternal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永遠なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パイン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森の土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limestone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ライムストーン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大理石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バサルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スレート</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダイオライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obsidian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黒曜石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">godbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神殺しの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phyllite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フィライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hot spring water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">温泉水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄い色の土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mahogany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マホガニー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rosewood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローズウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">氷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">straw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">藁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farmwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">農作業用の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cedar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mystic soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神秘的な土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mystic grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神秘的な草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresh water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">淡水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mithril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミスリル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titanium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タイタニアム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unfading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">色褪せぬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">綿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightweight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シルク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beautiful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美しき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逆鱗に触れし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cashmere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カシミア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暖かなる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zylon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ザイロン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">異国からもたらされし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spirit cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">霊布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otherworldly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">この世ならざる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dawn cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵晒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵闇をまといし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">griffon scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼鳥鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fallen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼を折られし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plastic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プラスチック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transparent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">透き通った</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青い土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柔らかい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spider silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蜘蛛糸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entangled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">絡みつく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">灰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">モミ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パルル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">明るい土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄色い土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tropical water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南の島の水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">麻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">強靭なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">willow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cherryblossom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">桜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">processed food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加工物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poplar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ポプラ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bamboo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amethyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アメジスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bewitching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妖艶なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.75 fix 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dark matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダークマター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest,wooden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森から生まれし,木の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉄塊と呼ばれる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">granite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">グラナイト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rigid,stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">岩をも砕く,石の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">泥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">practice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">練習用の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森の草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深い草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">子供のおもちゃの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゼリー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trembling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プルプルする</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raw food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生もの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">食用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acacia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカシア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄金に輝く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dreadbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闇を砕く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">copper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雷を帯し</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青銅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">気高き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミカ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ephemeral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">儚き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クロム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真実を暴く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diamond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダイヤ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever lasting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うつろいなき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rubynus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ルビナス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crimson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤く染まった</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鋼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">historic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">由緒ある</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">珊瑚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ocean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海からもたらされし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quartz sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">珪砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glittering,glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">さざめく,ガラスの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crystal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水晶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luminescent </t>
-  </si>
-  <si>
-    <t xml:space="preserve">異光を放つ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">革</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysterious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全てを包む</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragon scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragonbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜を統べし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pearl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真珠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shining</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闇を照らす</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emerald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エメラルド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">奇跡を呼ぶ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cobalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コバルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adamantite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アダマンタイト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">earthshaking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大地を揺るがす</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sapphire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サファイア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">topaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">トパーズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aquamarine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アクアマリン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オパール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翡翠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onyx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オニキス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lapis lazuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ラピス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turquoise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ターコイズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meteorite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メテオライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platinum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brilliant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">光をまといし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">immortal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不死なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">樺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">紙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ふざけた</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エーテル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eternal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">永遠なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パイン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森の土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">limestone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ライムストーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大理石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バサルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スレート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diorite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダイオライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obsidian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黒曜石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">godbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神殺しの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phyllite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フィライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hot spring water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">温泉水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">light soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薄い色の土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mahogany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">マホガニー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rosewood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローズウッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">氷</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">straw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">藁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farmwork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">農作業用の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cedar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mystic soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神秘的な土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mystic grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神秘的な草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fresh water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">淡水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mithril</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミスリル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">古なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titanium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイタニアム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unfading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">色褪せぬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cotton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">綿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightweight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薄い</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シルク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beautiful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美しき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逆鱗に触れし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cashmere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カシミア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">warm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">暖かなる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zylon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ザイロン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exotic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">異国からもたらされし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spirit cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">霊布</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otherworldly </t>
-  </si>
-  <si>
-    <t xml:space="preserve">この世ならざる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dawn cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵晒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dusk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵闇をまといし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">griffon scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼鳥鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fallen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼を折られし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plastic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プラスチック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transparent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">透き通った</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青い土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ウール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柔らかい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spider silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蜘蛛糸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entangled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">絡みつく</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">灰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モミ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パルル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">明るい土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yellow soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄色い土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tropical water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">南の島の水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">麻</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">強靭なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">willow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherryblossom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">桜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">processed food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">加工物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carbon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">炭</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poplar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ポプラ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bamboo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amethyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アメジスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bewitching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">妖艶なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.54</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 15.1</t>
@@ -1870,7 +1870,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C7" t="s">
         <v>407</v>
@@ -1918,7 +1918,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C9" t="s">
         <v>409</v>
@@ -1940,7 +1940,7 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C10" t="s">
         <v>410</v>
@@ -2040,7 +2040,7 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C14" t="s">
         <v>414</v>
@@ -2478,7 +2478,7 @@
         <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C31" t="s">
         <v>431</v>
@@ -2526,7 +2526,7 @@
         <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C33" t="s">
         <v>433</v>
@@ -2548,7 +2548,7 @@
         <v>150</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C34" t="s">
         <v>434</v>
@@ -2570,7 +2570,7 @@
         <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C35" t="s">
         <v>435</v>
@@ -2592,7 +2592,7 @@
         <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C36" t="s">
         <v>436</v>
@@ -2614,7 +2614,7 @@
         <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C37" t="s">
         <v>437</v>
@@ -2636,7 +2636,7 @@
         <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C38" t="s">
         <v>438</v>
@@ -2658,7 +2658,7 @@
         <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C39" t="s">
         <v>439</v>
@@ -2680,7 +2680,7 @@
         <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C40" t="s">
         <v>440</v>
@@ -2702,7 +2702,7 @@
         <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C41" t="s">
         <v>441</v>
@@ -2776,7 +2776,7 @@
         <v>184</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C44" t="s">
         <v>444</v>
@@ -2850,7 +2850,7 @@
         <v>197</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C47" t="s">
         <v>447</v>
@@ -2872,7 +2872,7 @@
         <v>200</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C48" t="s">
         <v>448</v>
@@ -2894,7 +2894,7 @@
         <v>203</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C49" t="s">
         <v>449</v>
@@ -2916,7 +2916,7 @@
         <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C50" t="s">
         <v>450</v>
@@ -2938,7 +2938,7 @@
         <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C51" t="s">
         <v>451</v>
@@ -2960,7 +2960,7 @@
         <v>212</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C52" t="s">
         <v>452</v>
@@ -2982,7 +2982,7 @@
         <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C53" t="s">
         <v>453</v>
@@ -3004,7 +3004,7 @@
         <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C54" t="s">
         <v>454</v>
@@ -3026,7 +3026,7 @@
         <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C55" t="s">
         <v>455</v>
@@ -3048,7 +3048,7 @@
         <v>224</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C56" t="s">
         <v>456</v>
@@ -3070,7 +3070,7 @@
         <v>227</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C57" t="s">
         <v>457</v>
@@ -3118,7 +3118,7 @@
         <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C59" t="s">
         <v>459</v>
@@ -3140,7 +3140,7 @@
         <v>238</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C60" t="s">
         <v>460</v>
@@ -3162,7 +3162,7 @@
         <v>241</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C61" t="s">
         <v>461</v>
@@ -3184,7 +3184,7 @@
         <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C62" t="s">
         <v>462</v>
@@ -3206,7 +3206,7 @@
         <v>247</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C63" t="s">
         <v>463</v>
@@ -3228,7 +3228,7 @@
         <v>250</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C64" t="s">
         <v>464</v>
@@ -3276,7 +3276,7 @@
         <v>258</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C66" t="s">
         <v>466</v>
@@ -3298,7 +3298,7 @@
         <v>261</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C67" t="s">
         <v>467</v>
@@ -3320,7 +3320,7 @@
         <v>264</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C68" t="s">
         <v>468</v>
@@ -3342,7 +3342,7 @@
         <v>267</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C69" t="s">
         <v>469</v>
@@ -3364,7 +3364,7 @@
         <v>270</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C70" t="s">
         <v>470</v>
@@ -3672,7 +3672,7 @@
         <v>328</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C82" t="s">
         <v>482</v>
@@ -3746,7 +3746,7 @@
         <v>341</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C85" t="s">
         <v>485</v>
@@ -3768,7 +3768,7 @@
         <v>344</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C86" t="s">
         <v>486</v>
@@ -3790,7 +3790,7 @@
         <v>347</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C87" t="s">
         <v>487</v>
@@ -3812,7 +3812,7 @@
         <v>350</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C88" t="s">
         <v>488</v>
@@ -3834,7 +3834,7 @@
         <v>353</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C89" t="s">
         <v>489</v>
@@ -3856,7 +3856,7 @@
         <v>355</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C90" t="s">
         <v>490</v>
@@ -3878,7 +3878,7 @@
         <v>358</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C91" t="s">
         <v>491</v>
@@ -3900,7 +3900,7 @@
         <v>361</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C92" t="s">
         <v>492</v>
@@ -3922,7 +3922,7 @@
         <v>364</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C93" t="s">
         <v>493</v>
@@ -3970,7 +3970,7 @@
         <v>372</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C95" t="s">
         <v>495</v>
@@ -3992,7 +3992,7 @@
         <v>375</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C96" t="s">
         <v>496</v>
@@ -4014,7 +4014,7 @@
         <v>378</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C97" t="s">
         <v>497</v>
@@ -4036,7 +4036,7 @@
         <v>381</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C98" t="s">
         <v>498</v>
@@ -4058,7 +4058,7 @@
         <v>384</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C99" t="s">
         <v>499</v>
@@ -4080,7 +4080,7 @@
         <v>387</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C100" t="s">
         <v>500</v>
@@ -4102,7 +4102,7 @@
         <v>390</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C101" t="s">
         <v>501</v>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="566">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,1213 +44,1213 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダークマター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オーク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest,wooden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森から生まれし,木の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉄塊と呼ばれる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">granite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">グラナイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rigid,stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">岩をも砕く,石の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">練習用の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森の草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深い草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">子供のおもちゃの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゼリー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trembling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プルプルする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raw food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生もの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">食用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acacia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アカシア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄金に輝く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dreadbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇を砕く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雷を帯し</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青銅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">気高き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミカ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ephemeral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">儚き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chromite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クロム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真実を暴く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダイヤモンド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever lasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うつろいなき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rubynus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ルビナス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crimson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤く染まった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鋼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">由緒ある</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珊瑚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海からもたらされし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quartz sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珪砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glittering,glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">さざめく,ガラスの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crystal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水晶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luminescent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">異光を放つ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">革</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysterious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全てを包む</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragon scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragonbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜を統べし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pearl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真珠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇を照らす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emerald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エメラルド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奇跡を呼ぶ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cobalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コバルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adamantite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アダマンタイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earthshaking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大地を揺るがす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sapphire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サファイア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">topaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">トパーズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aquamarine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アクアマリン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オパール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翡翠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onyx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オニキス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lapis lazuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ラピス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turquoise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ターコイズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meteorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メテオライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brilliant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光をまといし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">骨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">immortal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不死なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">樺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふざけた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エーテル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eternal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永遠なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パイン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森の土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limestone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ライムストーン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大理石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バサルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スレート</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダイオライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obsidian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黒曜石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">godbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神殺しの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phyllite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フィライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hot spring water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">温泉水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄い色の土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mahogany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マホガニー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rosewood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローズウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">氷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">straw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">藁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farmwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">農作業用の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cedar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mystic soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神秘的な土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mystic grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神秘的な草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresh water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">淡水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mithril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミスリル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titanium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タイタニアム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unfading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">色褪せぬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">綿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightweight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シルク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beautiful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美しき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逆鱗に触れし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cashmere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カシミア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暖かなる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zylon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ザイロン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">異国からもたらされし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spirit cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">霊布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otherworldly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">この世ならざる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dawn cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵晒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵闇をまといし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">griffon scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼鳥鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fallen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼を折られし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plastic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プラスチック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transparent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">透き通った</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青い土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柔らかい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spider silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蜘蛛糸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entangled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">絡みつく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">灰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">モミ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パルル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">明るい土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄色い土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tropical water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南の島の水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">麻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">強靭なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">willow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cherryblossom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">桜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">processed food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加工物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poplar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ポプラ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bamboo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amethyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アメジスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bewitching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妖艶なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feywood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フェイウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coralwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コーラルウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rose quartz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローズクオーツ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lovely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">愛らしい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dark matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダークマター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest,wooden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森から生まれし,木の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉄塊と呼ばれる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">granite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">グラナイト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rigid,stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">岩をも砕く,石の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">泥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">practice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">練習用の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森の草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深い草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">子供のおもちゃの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゼリー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trembling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プルプルする</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raw food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生もの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">食用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acacia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカシア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄金に輝く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dreadbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闇を砕く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">copper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雷を帯し</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青銅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">気高き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミカ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ephemeral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">儚き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クロム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真実を暴く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diamond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダイヤモンド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever lasting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うつろいなき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rubynus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ルビナス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crimson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤く染まった</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鋼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">historic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">由緒ある</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">珊瑚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ocean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海からもたらされし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quartz sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">珪砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glittering,glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">さざめく,ガラスの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crystal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水晶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luminescent </t>
-  </si>
-  <si>
-    <t xml:space="preserve">異光を放つ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">革</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysterious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全てを包む</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragon scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragonbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜を統べし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pearl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真珠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shining</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闇を照らす</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emerald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エメラルド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">奇跡を呼ぶ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cobalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コバルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adamantite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アダマンタイト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">earthshaking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大地を揺るがす</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sapphire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サファイア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">topaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">トパーズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aquamarine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アクアマリン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オパール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翡翠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onyx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オニキス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lapis lazuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ラピス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turquoise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ターコイズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meteorite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メテオライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platinum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brilliant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">光をまといし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">immortal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不死なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">樺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">紙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ふざけた</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エーテル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eternal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">永遠なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パイン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森の土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">limestone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ライムストーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大理石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バサルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スレート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diorite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダイオライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obsidian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黒曜石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">godbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神殺しの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phyllite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フィライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hot spring water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">温泉水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">light soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薄い色の土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mahogany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">マホガニー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rosewood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローズウッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">氷</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">straw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">藁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farmwork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">農作業用の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cedar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mystic soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神秘的な土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mystic grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神秘的な草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fresh water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">淡水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mithril</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミスリル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">古なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titanium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイタニアム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unfading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">色褪せぬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cotton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">綿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightweight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薄い</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シルク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beautiful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美しき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逆鱗に触れし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cashmere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カシミア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">warm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">暖かなる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zylon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ザイロン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exotic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">異国からもたらされし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spirit cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">霊布</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otherworldly </t>
-  </si>
-  <si>
-    <t xml:space="preserve">この世ならざる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dawn cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵晒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dusk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵闇をまといし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">griffon scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼鳥鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fallen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼を折られし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plastic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プラスチック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transparent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">透き通った</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青い土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ウール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柔らかい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spider silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蜘蛛糸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entangled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">絡みつく</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">灰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モミ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パルル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">明るい土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yellow soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄色い土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tropical water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">南の島の水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">麻</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">強靭なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">willow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherryblossom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">桜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">processed food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">加工物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carbon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">炭</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poplar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ポプラ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bamboo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amethyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アメジスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bewitching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">妖艶なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feywood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フェイウッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coralwood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コーラルウッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rose quartz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローズクオーツ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lovely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">愛らしい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.109 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.108</t>
@@ -1921,7 +1921,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C7" t="s">
         <v>420</v>
@@ -1969,7 +1969,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C9" t="s">
         <v>422</v>
@@ -1991,7 +1991,7 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C10" t="s">
         <v>423</v>
@@ -2091,7 +2091,7 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C14" t="s">
         <v>427</v>
@@ -2529,7 +2529,7 @@
         <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C31" t="s">
         <v>444</v>
@@ -2577,7 +2577,7 @@
         <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C33" t="s">
         <v>446</v>
@@ -2599,7 +2599,7 @@
         <v>150</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C34" t="s">
         <v>447</v>
@@ -2621,7 +2621,7 @@
         <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C35" t="s">
         <v>448</v>
@@ -2643,7 +2643,7 @@
         <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C36" t="s">
         <v>449</v>
@@ -2665,7 +2665,7 @@
         <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C37" t="s">
         <v>450</v>
@@ -2687,7 +2687,7 @@
         <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C38" t="s">
         <v>451</v>
@@ -2709,7 +2709,7 @@
         <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C39" t="s">
         <v>452</v>
@@ -2731,7 +2731,7 @@
         <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C40" t="s">
         <v>453</v>
@@ -2753,7 +2753,7 @@
         <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C41" t="s">
         <v>454</v>
@@ -2827,7 +2827,7 @@
         <v>184</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C44" t="s">
         <v>457</v>
@@ -2901,7 +2901,7 @@
         <v>197</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C47" t="s">
         <v>460</v>
@@ -2923,7 +2923,7 @@
         <v>200</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C48" t="s">
         <v>461</v>
@@ -2945,7 +2945,7 @@
         <v>203</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C49" t="s">
         <v>462</v>
@@ -2967,7 +2967,7 @@
         <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C50" t="s">
         <v>463</v>
@@ -2989,7 +2989,7 @@
         <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C51" t="s">
         <v>464</v>
@@ -3011,7 +3011,7 @@
         <v>212</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C52" t="s">
         <v>465</v>
@@ -3033,7 +3033,7 @@
         <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C53" t="s">
         <v>466</v>
@@ -3055,7 +3055,7 @@
         <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C54" t="s">
         <v>467</v>
@@ -3077,7 +3077,7 @@
         <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C55" t="s">
         <v>468</v>
@@ -3099,7 +3099,7 @@
         <v>224</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C56" t="s">
         <v>469</v>
@@ -3121,7 +3121,7 @@
         <v>227</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C57" t="s">
         <v>470</v>
@@ -3169,7 +3169,7 @@
         <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C59" t="s">
         <v>472</v>
@@ -3191,7 +3191,7 @@
         <v>238</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C60" t="s">
         <v>473</v>
@@ -3213,7 +3213,7 @@
         <v>241</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C61" t="s">
         <v>474</v>
@@ -3235,7 +3235,7 @@
         <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C62" t="s">
         <v>475</v>
@@ -3257,7 +3257,7 @@
         <v>247</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C63" t="s">
         <v>476</v>
@@ -3279,7 +3279,7 @@
         <v>250</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C64" t="s">
         <v>477</v>
@@ -3327,7 +3327,7 @@
         <v>258</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C66" t="s">
         <v>479</v>
@@ -3349,7 +3349,7 @@
         <v>261</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C67" t="s">
         <v>480</v>
@@ -3371,7 +3371,7 @@
         <v>264</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C68" t="s">
         <v>481</v>
@@ -3393,7 +3393,7 @@
         <v>267</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C69" t="s">
         <v>482</v>
@@ -3415,7 +3415,7 @@
         <v>270</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C70" t="s">
         <v>483</v>
@@ -3723,7 +3723,7 @@
         <v>328</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C82" t="s">
         <v>495</v>
@@ -3797,7 +3797,7 @@
         <v>341</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C85" t="s">
         <v>498</v>
@@ -3819,7 +3819,7 @@
         <v>344</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C86" t="s">
         <v>499</v>
@@ -3841,7 +3841,7 @@
         <v>347</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C87" t="s">
         <v>500</v>
@@ -3863,7 +3863,7 @@
         <v>350</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C88" t="s">
         <v>501</v>
@@ -3885,7 +3885,7 @@
         <v>353</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C89" t="s">
         <v>502</v>
@@ -3907,7 +3907,7 @@
         <v>355</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C90" t="s">
         <v>503</v>
@@ -3929,7 +3929,7 @@
         <v>358</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C91" t="s">
         <v>504</v>
@@ -3951,7 +3951,7 @@
         <v>361</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C92" t="s">
         <v>505</v>
@@ -3973,7 +3973,7 @@
         <v>364</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C93" t="s">
         <v>506</v>
@@ -4021,7 +4021,7 @@
         <v>372</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C95" t="s">
         <v>508</v>
@@ -4043,7 +4043,7 @@
         <v>375</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C96" t="s">
         <v>509</v>
@@ -4065,7 +4065,7 @@
         <v>378</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C97" t="s">
         <v>510</v>
@@ -4087,7 +4087,7 @@
         <v>381</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C98" t="s">
         <v>511</v>
@@ -4109,7 +4109,7 @@
         <v>384</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C99" t="s">
         <v>512</v>
@@ -4131,7 +4131,7 @@
         <v>387</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C100" t="s">
         <v>513</v>
@@ -4153,7 +4153,7 @@
         <v>390</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C101" t="s">
         <v>514</v>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="572">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,1225 +44,1225 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.173 Patch 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダークマター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オーク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest,wooden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森から生まれし,木の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉄塊と呼ばれる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">granite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">グラナイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rigid,stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">岩をも砕く,石の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">練習用の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森の草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深い草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">子供のおもちゃの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゼリー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trembling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プルプルする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raw food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生もの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">食用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acacia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アカシア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄金に輝く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dreadbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇を砕く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雷を帯し</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青銅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">気高き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミカ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ephemeral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">儚き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chromite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クロム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真実を暴く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダイヤモンド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever lasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うつろいなき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rubynus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ルビナス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crimson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤く染まった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鋼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">由緒ある</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珊瑚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海からもたらされし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quartz sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珪砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glittering,glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">さざめく,ガラスの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crystal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水晶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luminescent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">異光を放つ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">革</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysterious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全てを包む</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragon scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragonbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜を統べし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pearl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真珠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇を照らす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emerald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エメラルド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奇跡を呼ぶ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cobalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コバルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adamantite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アダマンタイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earthshaking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大地を揺るがす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sapphire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サファイア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">topaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">トパーズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aquamarine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アクアマリン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オパール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翡翠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onyx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オニキス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lapis lazuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ラピス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turquoise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ターコイズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meteorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メテオライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brilliant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光をまといし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">骨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">immortal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不死なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">樺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふざけた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エーテル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eternal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永遠なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パイン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森の土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limestone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ライムストーン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大理石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バサルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スレート</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダイオライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obsidian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黒曜石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">godbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神殺しの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phyllite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フィライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hot spring water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">温泉水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pale soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄い色の土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mahogany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マホガニー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rosewood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローズウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">氷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">straw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">藁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farmwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">農作業用の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cedar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mystic soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神秘的な土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mystic grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神秘的な草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresh water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">淡水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mithril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミスリル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titanium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タイタニアム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unfading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">色褪せぬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">綿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightweight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シルク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beautiful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美しき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逆鱗に触れし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cashmere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カシミア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暖かなる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zylon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ザイロン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">異国からもたらされし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spirit cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">霊布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otherworldly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">この世ならざる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dawn cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵晒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵闇をまといし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">griffon scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼鳥鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fallen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼を折られし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plastic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プラスチック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transparent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">透き通った</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青い土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柔らかい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spider silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蜘蛛糸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entangled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">絡みつく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">灰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">モミ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パルル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">明るい土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄色い土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tropical water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南の島の水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">麻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">強靭なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">willow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cherryblossom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">桜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">processed food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加工物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poplar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ポプラ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bamboo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amethyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アメジスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bewitching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妖艶なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feywood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フェイウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coralwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コーラルウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rose quartz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローズクオーツ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lovely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">愛らしい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresh cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生クリーム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dark matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダークマター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest,wooden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森から生まれし,木の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉄塊と呼ばれる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">granite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">グラナイト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rigid,stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">岩をも砕く,石の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">泥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">practice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">練習用の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森の草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深い草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">子供のおもちゃの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゼリー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trembling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プルプルする</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raw food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生もの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">食用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acacia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカシア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄金に輝く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dreadbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闇を砕く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">copper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雷を帯し</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青銅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">気高き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミカ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ephemeral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">儚き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クロム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真実を暴く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diamond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダイヤモンド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever lasting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うつろいなき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rubynus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ルビナス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crimson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤く染まった</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鋼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">historic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">由緒ある</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">珊瑚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ocean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海からもたらされし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quartz sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">珪砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glittering,glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">さざめく,ガラスの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crystal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水晶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luminescent </t>
-  </si>
-  <si>
-    <t xml:space="preserve">異光を放つ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">革</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysterious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全てを包む</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragon scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragonbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜を統べし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pearl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真珠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shining</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闇を照らす</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emerald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エメラルド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">奇跡を呼ぶ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cobalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コバルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adamantite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アダマンタイト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">earthshaking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大地を揺るがす</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sapphire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サファイア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">topaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">トパーズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aquamarine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アクアマリン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オパール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翡翠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onyx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オニキス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lapis lazuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ラピス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turquoise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ターコイズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meteorite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メテオライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platinum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brilliant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">光をまといし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">immortal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不死なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">樺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">紙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ふざけた</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エーテル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eternal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">永遠なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パイン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森の土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">limestone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ライムストーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大理石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バサルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スレート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diorite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダイオライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obsidian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黒曜石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">godbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神殺しの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phyllite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フィライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hot spring water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">温泉水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pale soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薄い色の土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mahogany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">マホガニー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rosewood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローズウッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">氷</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">straw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">藁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farmwork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">農作業用の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cedar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mystic soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神秘的な土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mystic grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神秘的な草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fresh water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">淡水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mithril</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミスリル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">古なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titanium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイタニアム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unfading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">色褪せぬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cotton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">綿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightweight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薄い</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シルク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beautiful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美しき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逆鱗に触れし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cashmere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カシミア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">warm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">暖かなる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zylon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ザイロン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exotic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">異国からもたらされし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spirit cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">霊布</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otherworldly </t>
-  </si>
-  <si>
-    <t xml:space="preserve">この世ならざる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dawn cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵晒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dusk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵闇をまといし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">griffon scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼鳥鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fallen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼を折られし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plastic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プラスチック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transparent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">透き通った</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青い土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ウール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柔らかい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spider silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蜘蛛糸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entangled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">絡みつく</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">灰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モミ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パルル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">light soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">明るい土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yellow soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄色い土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tropical water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">南の島の水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">麻</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">強靭なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">willow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherryblossom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">桜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">processed food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">加工物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carbon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">炭</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poplar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ポプラ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bamboo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amethyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アメジスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bewitching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">妖艶なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feywood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フェイウッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coralwood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コーラルウッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rose quartz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローズクオーツ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lovely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">愛らしい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fresh cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生クリーム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.108</t>
@@ -1939,7 +1939,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C7" t="s">
         <v>425</v>
@@ -1987,7 +1987,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C9" t="s">
         <v>427</v>
@@ -2009,7 +2009,7 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C10" t="s">
         <v>428</v>
@@ -2109,7 +2109,7 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C14" t="s">
         <v>432</v>
@@ -2547,7 +2547,7 @@
         <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C31" t="s">
         <v>449</v>
@@ -2595,7 +2595,7 @@
         <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C33" t="s">
         <v>451</v>
@@ -2617,7 +2617,7 @@
         <v>150</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C34" t="s">
         <v>452</v>
@@ -2639,7 +2639,7 @@
         <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C35" t="s">
         <v>453</v>
@@ -2661,7 +2661,7 @@
         <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C36" t="s">
         <v>454</v>
@@ -2683,7 +2683,7 @@
         <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C37" t="s">
         <v>455</v>
@@ -2705,7 +2705,7 @@
         <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C38" t="s">
         <v>456</v>
@@ -2727,7 +2727,7 @@
         <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C39" t="s">
         <v>457</v>
@@ -2749,7 +2749,7 @@
         <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C40" t="s">
         <v>458</v>
@@ -2771,7 +2771,7 @@
         <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C41" t="s">
         <v>459</v>
@@ -2845,7 +2845,7 @@
         <v>184</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C44" t="s">
         <v>462</v>
@@ -2919,7 +2919,7 @@
         <v>197</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C47" t="s">
         <v>465</v>
@@ -2941,7 +2941,7 @@
         <v>200</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C48" t="s">
         <v>466</v>
@@ -2963,7 +2963,7 @@
         <v>203</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C49" t="s">
         <v>467</v>
@@ -2985,7 +2985,7 @@
         <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C50" t="s">
         <v>468</v>
@@ -3007,7 +3007,7 @@
         <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C51" t="s">
         <v>469</v>
@@ -3029,7 +3029,7 @@
         <v>212</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C52" t="s">
         <v>470</v>
@@ -3051,7 +3051,7 @@
         <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C53" t="s">
         <v>471</v>
@@ -3073,7 +3073,7 @@
         <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C54" t="s">
         <v>472</v>
@@ -3095,7 +3095,7 @@
         <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C55" t="s">
         <v>473</v>
@@ -3117,7 +3117,7 @@
         <v>224</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C56" t="s">
         <v>474</v>
@@ -3139,7 +3139,7 @@
         <v>227</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C57" t="s">
         <v>475</v>
@@ -3187,7 +3187,7 @@
         <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C59" t="s">
         <v>477</v>
@@ -3209,7 +3209,7 @@
         <v>238</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C60" t="s">
         <v>478</v>
@@ -3231,7 +3231,7 @@
         <v>241</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C61" t="s">
         <v>479</v>
@@ -3253,7 +3253,7 @@
         <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C62" t="s">
         <v>480</v>
@@ -3275,7 +3275,7 @@
         <v>247</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C63" t="s">
         <v>481</v>
@@ -3297,7 +3297,7 @@
         <v>250</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C64" t="s">
         <v>482</v>
@@ -3345,7 +3345,7 @@
         <v>258</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C66" t="s">
         <v>484</v>
@@ -3367,7 +3367,7 @@
         <v>261</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C67" t="s">
         <v>485</v>
@@ -3389,7 +3389,7 @@
         <v>264</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C68" t="s">
         <v>486</v>
@@ -3411,7 +3411,7 @@
         <v>267</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C69" t="s">
         <v>487</v>
@@ -3433,7 +3433,7 @@
         <v>270</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C70" t="s">
         <v>488</v>
@@ -3741,7 +3741,7 @@
         <v>328</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C82" t="s">
         <v>500</v>
@@ -3815,7 +3815,7 @@
         <v>341</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C85" t="s">
         <v>503</v>
@@ -3837,7 +3837,7 @@
         <v>344</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C86" t="s">
         <v>504</v>
@@ -3859,7 +3859,7 @@
         <v>347</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C87" t="s">
         <v>505</v>
@@ -3881,7 +3881,7 @@
         <v>350</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C88" t="s">
         <v>506</v>
@@ -3903,7 +3903,7 @@
         <v>353</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C89" t="s">
         <v>507</v>
@@ -3925,7 +3925,7 @@
         <v>356</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C90" t="s">
         <v>508</v>
@@ -3947,7 +3947,7 @@
         <v>359</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C91" t="s">
         <v>509</v>
@@ -3969,7 +3969,7 @@
         <v>362</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C92" t="s">
         <v>510</v>
@@ -3991,7 +3991,7 @@
         <v>365</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C93" t="s">
         <v>511</v>
@@ -4039,7 +4039,7 @@
         <v>373</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C95" t="s">
         <v>513</v>
@@ -4061,7 +4061,7 @@
         <v>376</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C96" t="s">
         <v>514</v>
@@ -4083,7 +4083,7 @@
         <v>379</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C97" t="s">
         <v>515</v>
@@ -4105,7 +4105,7 @@
         <v>382</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C98" t="s">
         <v>516</v>
@@ -4127,7 +4127,7 @@
         <v>385</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C99" t="s">
         <v>517</v>
@@ -4149,7 +4149,7 @@
         <v>388</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C100" t="s">
         <v>518</v>
@@ -4171,7 +4171,7 @@
         <v>391</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C101" t="s">
         <v>519</v>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.173 Patch 1</t>
+    <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">水晶</t>
   </si>
   <si>
-    <t xml:space="preserve">luminescent </t>
+    <t xml:space="preserve">luminescent</t>
   </si>
   <si>
     <t xml:space="preserve">異光を放つ</t>
@@ -950,7 +950,7 @@
     <t xml:space="preserve">霊布</t>
   </si>
   <si>
-    <t xml:space="preserve">otherworldly </t>
+    <t xml:space="preserve">otherworldly</t>
   </si>
   <si>
     <t xml:space="preserve">この世ならざる</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.187</t>
+    <t xml:space="preserve">EA 23.188 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.188 Patch 2</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.209 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.212</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="584">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -133,7 +133,7 @@
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.170</t>
+    <t xml:space="preserve">EA 23.237 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">진흙</t>
@@ -1751,6 +1751,30 @@
   </si>
   <si>
     <t xml:space="preserve">琥珀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마그마</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マグマ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">피</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">血</t>
   </si>
 </sst>
 </file>
@@ -1979,12 +2003,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E108" activeCellId="0" sqref="E108"/>
+      <selection pane="bottomLeft" activeCell="F111" activeCellId="0" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4377,6 +4401,40 @@
       </c>
       <c r="E107" s="0" t="s">
         <v>575</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>583</v>
       </c>
     </row>
   </sheetData>
